--- a/DivisionalStandings.xlsx
+++ b/DivisionalStandings.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7640"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Division" sheetId="1" r:id="rId1"/>
+    <sheet name="Conference" sheetId="2" r:id="rId2"/>
+    <sheet name="Wildcard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
   <si>
     <t>Rank</t>
   </si>
@@ -105,6 +107,69 @@
   </si>
   <si>
     <t>Winnipeg Jets</t>
+  </si>
+  <si>
+    <t>Minnesota Wild</t>
+  </si>
+  <si>
+    <t>Dallas Stars</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche</t>
+  </si>
+  <si>
+    <t>St. Louis Blues</t>
+  </si>
+  <si>
+    <t>Chicago Blackhawks</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>San Jose Sharks</t>
+  </si>
+  <si>
+    <t>Anaheim Ducks</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
+  </si>
+  <si>
+    <t>Calgary Flames</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>Vancouver Canucks</t>
+  </si>
+  <si>
+    <t>Arizona Coyotes</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>WC1</t>
+  </si>
+  <si>
+    <t>WC2</t>
+  </si>
+  <si>
+    <t>No Playoffs</t>
   </si>
 </sst>
 </file>
@@ -120,12 +185,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,14 +241,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -422,513 +535,2845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>C3*2+E3</f>
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="G3" s="1">
+        <f>C3+D3+E3</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>42</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>C4*2+E4</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G39" si="0">C4+D4+E4</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>39</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>7</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F10" si="0">C5*2+E5</f>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="1">C5*2+E5</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>33</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>35</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f>C13*2+E13</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>37</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>23</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>7</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F20" si="1">C14*2+E14</f>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F20" si="2">C14*2+E14</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>23</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>11</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>34</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>35</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>28</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>11</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>29</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>29</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>32</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>6</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="G22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>44</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <f>C23*2+E23</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>41</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>9</v>
       </c>
-      <c r="F24">
-        <f t="shared" ref="F24:F29" si="2">C24*2+E24</f>
+      <c r="F24" s="3">
+        <f t="shared" ref="F24:F29" si="3">C24*2+E24</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <f>C25*2+E25</f>
+        <v>83</v>
+      </c>
+      <c r="G25" s="3">
+        <f>C25+D25+E25</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <f>C26*2+E26</f>
+        <v>80</v>
+      </c>
+      <c r="G26" s="3">
+        <f>C26+D26+E26</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3">
+        <v>31</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6">
+        <v>19</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <f>C32*2+E32</f>
+        <v>91</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6">
+        <v>36</v>
+      </c>
+      <c r="D33" s="6">
+        <v>22</v>
+      </c>
+      <c r="E33" s="6">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" ref="F33:F39" si="4">C33*2+E33</f>
+        <v>81</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6">
+        <v>34</v>
+      </c>
+      <c r="D34" s="6">
+        <v>22</v>
+      </c>
+      <c r="E34" s="6">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6">
+        <v>37</v>
+      </c>
+      <c r="D35" s="6">
+        <v>25</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6">
+        <v>25</v>
+      </c>
+      <c r="E36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6">
+        <v>29</v>
+      </c>
+      <c r="D37" s="6">
+        <v>34</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6">
+        <v>25</v>
+      </c>
+      <c r="D38" s="6">
+        <v>33</v>
+      </c>
+      <c r="E38" s="6">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>8</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6">
+        <v>21</v>
+      </c>
+      <c r="D39" s="6">
+        <v>34</v>
+      </c>
+      <c r="E39" s="6">
+        <v>11</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3*2+E3</f>
+        <v>98</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C3+D3+E3</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4*2+E4</f>
+        <v>92</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G20" si="0">C4+D4+E4</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="1">C5*2+E5</f>
+        <v>85</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <f>C6*2+E6</f>
+        <v>82</v>
+      </c>
+      <c r="G6" s="1">
+        <f>C6+D6+E6</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <f>C7*2+E7</f>
+        <v>81</v>
+      </c>
+      <c r="G7" s="1">
+        <f>C7+D7+E7</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <f>C8*2+E8</f>
+        <v>79</v>
+      </c>
+      <c r="G8" s="1">
+        <f>C8+D8+E8</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <f>C9*2+E9</f>
+        <v>76</v>
+      </c>
+      <c r="G9" s="1">
+        <f>C9+D9+E9</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>C10*2+E10</f>
+        <v>75</v>
+      </c>
+      <c r="G10" s="1">
+        <f>C10+D10+E10</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <f>C11*2+E11</f>
+        <v>73</v>
+      </c>
+      <c r="G11" s="1">
+        <f>C11+D11+E11</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <f>C12*2+E12</f>
+        <v>71</v>
+      </c>
+      <c r="G12" s="1">
+        <f>C12+D12+E12</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <f>C13*2+E13</f>
+        <v>68</v>
+      </c>
+      <c r="G13" s="1">
+        <f>C13+D13+E13</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <f>C14*2+E14</f>
+        <v>66</v>
+      </c>
+      <c r="G14" s="1">
+        <f>C14+D14+E14</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <f>C15*2+E15</f>
+        <v>63</v>
+      </c>
+      <c r="G15" s="1">
+        <f>C15+D15+E15</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1">
+        <f>C16*2+E16</f>
+        <v>61</v>
+      </c>
+      <c r="G16" s="1">
+        <f>C16+D16+E16</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <f>C17*2+E17</f>
+        <v>57</v>
+      </c>
+      <c r="G17" s="1">
+        <f>C17+D17+E17</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1">
+        <f>C18*2+E18</f>
+        <v>55</v>
+      </c>
+      <c r="G18" s="1">
+        <f>C18+D18+E18</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
+        <f>C21*2+E21</f>
+        <v>97</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21:G37" si="2">C21+D21+E21</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <f>C22*2+E22</f>
+        <v>91</v>
+      </c>
+      <c r="G22" s="2">
+        <f>C22+D22+E22</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2">
+        <f>C23*2+E23</f>
+        <v>91</v>
+      </c>
+      <c r="G23" s="2">
+        <f>C23+D23+E23</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <f>C24*2+E24</f>
+        <v>83</v>
+      </c>
+      <c r="G24" s="2">
+        <f>C24+D24+E24</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
+        <f>C25*2+E25</f>
+        <v>81</v>
+      </c>
+      <c r="G25" s="2">
+        <f>C25+D25+E25</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2">
+        <f>C26*2+E26</f>
+        <v>80</v>
+      </c>
+      <c r="G26" s="2">
+        <f>C26+D26+E26</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2">
+        <f>C27*2+E27</f>
+        <v>80</v>
+      </c>
+      <c r="G27" s="2">
+        <f>C27+D27+E27</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <f>C28*2+E28</f>
+        <v>79</v>
+      </c>
+      <c r="G28" s="2">
+        <f>C28+D28+E28</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2">
+        <f>C29*2+E29</f>
+        <v>78</v>
+      </c>
+      <c r="G29" s="2">
+        <f>C29+D29+E29</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <f>C30*2+E30</f>
+        <v>76</v>
+      </c>
+      <c r="G30" s="2">
+        <f>C30+D30+E30</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <f>C31*2+E31</f>
+        <v>75</v>
+      </c>
+      <c r="G31" s="2">
+        <f>C31+D31+E31</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
+        <f>C32*2+E32</f>
+        <v>66</v>
+      </c>
+      <c r="G32" s="2">
+        <f>C32+D32+E32</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <f>C33*2+E33</f>
+        <v>62</v>
+      </c>
+      <c r="G33" s="2">
+        <f>C33+D33+E33</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2">
+        <f>C34*2+E34</f>
+        <v>59</v>
+      </c>
+      <c r="G34" s="2">
+        <f>C34+D34+E34</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2">
+        <f>C35*2+E35</f>
+        <v>53</v>
+      </c>
+      <c r="G35" s="2">
+        <f>C35+D35+E35</f>
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3*2+E3</f>
+        <v>98</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C3+D3+E3</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4*2+E4</f>
+        <v>92</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G5" si="0">C4+D4+E4</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5" si="1">C5*2+E5</f>
+        <v>85</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <f>C8*2+E8</f>
+        <v>82</v>
+      </c>
+      <c r="G8" s="2">
+        <f>C8+D8+E8</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F15" si="2">C9*2+E9</f>
+        <v>81</v>
+      </c>
+      <c r="G9" s="2">
+        <f>C9+D9+E9</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="G10" s="2">
+        <f>C10+D10+E10</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <f>C13*2+E13</f>
+        <v>76</v>
+      </c>
+      <c r="G13" s="4">
+        <f>C13+D13+E13</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
+        <f>C14*2+E14</f>
+        <v>75</v>
+      </c>
+      <c r="G14" s="4">
+        <f>C14+D14+E14</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
+      <c r="F16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5">
+        <f>C17*2+E17</f>
+        <v>73</v>
+      </c>
+      <c r="G17" s="5">
+        <f>C17+D17+E17</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5">
+        <f>C18*2+E18</f>
+        <v>71</v>
+      </c>
+      <c r="G18" s="5">
+        <f>C18+D18+E18</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <f>C19*2+E19</f>
+        <v>68</v>
+      </c>
+      <c r="G19" s="5">
+        <f>C19+D19+E19</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5">
+        <f>C20*2+E20</f>
+        <v>66</v>
+      </c>
+      <c r="G20" s="5">
+        <f>C20+D20+E20</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5">
+        <f>C21*2+E21</f>
+        <v>63</v>
+      </c>
+      <c r="G21" s="5">
+        <f>C21+D21+E21</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5">
+        <f>C22*2+E22</f>
+        <v>61</v>
+      </c>
+      <c r="G22" s="5">
+        <f>C22+D22+E22</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5">
+        <f>C23*2+E23</f>
+        <v>57</v>
+      </c>
+      <c r="G23" s="5">
+        <f>C23+D23+E23</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5">
+        <f>C24*2+E24</f>
+        <v>55</v>
+      </c>
+      <c r="G24" s="5">
+        <f>C24+D24+E24</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
+      <c r="G26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3">
+        <f>C27*2+E27</f>
+        <v>97</v>
+      </c>
+      <c r="G27" s="3">
+        <f>C27+D27+E27</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3">
+        <f>C28*2+E28</f>
+        <v>91</v>
+      </c>
+      <c r="G28" s="3">
+        <f>C28+D28+E28</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>38</v>
+      </c>
+      <c r="D29" s="3">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3">
+        <f>C29*2+E29</f>
+        <v>83</v>
+      </c>
+      <c r="G29" s="3">
+        <f>C29+D29+E29</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6">
+        <v>19</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <f>C32*2+E32</f>
+        <v>91</v>
+      </c>
+      <c r="G32" s="6">
+        <f>C32+D32+E32</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6">
+        <v>36</v>
+      </c>
+      <c r="D33" s="6">
+        <v>22</v>
+      </c>
+      <c r="E33" s="6">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6">
+        <f>C33*2+E33</f>
+        <v>81</v>
+      </c>
+      <c r="G33" s="6">
+        <f>C33+D33+E33</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6">
+        <v>34</v>
+      </c>
+      <c r="D34" s="6">
+        <v>22</v>
+      </c>
+      <c r="E34" s="6">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6">
+        <f>C34*2+E34</f>
+        <v>80</v>
+      </c>
+      <c r="G34" s="6">
+        <f>C34+D34+E34</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="4">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4">
+        <v>24</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6</v>
+      </c>
+      <c r="F37" s="4">
+        <f>C37*2+E37</f>
+        <v>80</v>
+      </c>
+      <c r="G37" s="4">
+        <f>C37+D37+E37</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4">
+        <f>C38*2+E38</f>
+        <v>79</v>
+      </c>
+      <c r="G38" s="4">
+        <f>C38+D38+E38</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="5">
+        <v>35</v>
+      </c>
+      <c r="D40" s="5">
+        <v>24</v>
+      </c>
+      <c r="E40" s="5">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <f>C40*2+E40</f>
+        <v>78</v>
+      </c>
+      <c r="G40" s="5">
+        <f>C40+D40+E40</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5">
+        <v>33</v>
+      </c>
+      <c r="D41" s="5">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5">
+        <f>C41*2+E41</f>
+        <v>76</v>
+      </c>
+      <c r="G41" s="5">
+        <f>C41+D41+E41</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5">
+        <v>35</v>
+      </c>
+      <c r="D42" s="5">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5">
+        <f>C42*2+E42</f>
+        <v>75</v>
+      </c>
+      <c r="G42" s="5">
+        <f>C42+D42+E42</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="5">
+        <v>29</v>
+      </c>
+      <c r="D43" s="5">
+        <v>31</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5">
+        <f>C43*2+E43</f>
+        <v>66</v>
+      </c>
+      <c r="G43" s="5">
+        <f>C43+D43+E43</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="5">
+        <v>29</v>
+      </c>
+      <c r="D44" s="5">
+        <v>34</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4</v>
+      </c>
+      <c r="F44" s="5">
+        <f>C44*2+E44</f>
+        <v>62</v>
+      </c>
+      <c r="G44" s="5">
+        <f>C44+D44+E44</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="5">
+        <v>25</v>
+      </c>
+      <c r="D45" s="5">
+        <v>33</v>
+      </c>
+      <c r="E45" s="5">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5">
+        <f>C45*2+E45</f>
+        <v>59</v>
+      </c>
+      <c r="G45" s="5">
+        <f>C45+D45+E45</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
         <v>7</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5">
+        <v>21</v>
+      </c>
+      <c r="D46" s="5">
+        <v>34</v>
+      </c>
+      <c r="E46" s="5">
+        <v>11</v>
+      </c>
+      <c r="F46" s="5">
+        <f>C46*2+E46</f>
+        <v>53</v>
+      </c>
+      <c r="G46" s="5">
+        <f>C46+D46+E46</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
